--- a/python/two/night Error t1=6 t2=3 δ=0.5.xlsx
+++ b/python/two/night Error t1=6 t2=3 δ=0.5.xlsx
@@ -470,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.77e-05</v>
+        <v>0.225</v>
       </c>
       <c r="E2" t="n">
-        <v>5.93</v>
+        <v>5.98</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.1</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00727</v>
+        <v>7.57</v>
       </c>
       <c r="E3" t="n">
-        <v>3.93</v>
+        <v>5.04</v>
       </c>
       <c r="F3" t="n">
-        <v>30.9</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         <v>0.0001</v>
       </c>
       <c r="C4" t="n">
+        <v>0.000101</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0001</v>
       </c>
-      <c r="D4" t="n">
-        <v>-3.08e-05</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.000101</v>
-      </c>
       <c r="F4" t="n">
-        <v>0.631</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         <v>0.5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00155</v>
+        <v>-1.46</v>
       </c>
       <c r="E5" t="n">
-        <v>0.442</v>
+        <v>0.268</v>
       </c>
       <c r="F5" t="n">
-        <v>-11.5</v>
+        <v>-46.4</v>
       </c>
     </row>
     <row r="6">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.37e-07</v>
+        <v>-1.11e-14</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.33e-06</v>
+        <v>199000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>185000</v>
+        <v>288000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.25e-08</v>
+        <v>1020</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>949</v>
+        <v>1480</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
